--- a/picklist-no-logo.xlsx
+++ b/picklist-no-logo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Frederik/Library/Mobile Documents/com~apple~CloudDocs/Sites/git-ob2c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DC0F75-998A-E04E-A671-851998D7753E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F8DB6-66D2-4241-A490-C29A8AF63FD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="3460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestelling" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Artikelnummer</t>
   </si>
@@ -51,16 +51,7 @@
     <t>Stukprijs</t>
   </si>
   <si>
-    <t>TOTAAL (incl. BTW)</t>
-  </si>
-  <si>
     <t>Geleverd</t>
-  </si>
-  <si>
-    <t>KLANT:</t>
-  </si>
-  <si>
-    <t>LEVERING:</t>
   </si>
 </sst>
 </file>
@@ -70,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,42 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,39 +128,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -221,121 +151,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -349,40 +164,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,37 +205,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -429,73 +220,13 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Gevolgde hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -877,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:G5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,108 +620,37 @@
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33">
-        <f>SUM(F8:F1007)</f>
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
